--- a/ApiData/DemoAPITestCase.xlsx
+++ b/ApiData/DemoAPITestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\auto\knowledge\pythonProject\ApiDiff\ApiData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22189BD6-81BD-463B-9571-36BC07A4A642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D10EC-71E0-44FC-AD38-36A02E60C680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>module</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>success</t>
@@ -84,31 +81,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>{"loginType":"dental-cloud","username":"13300000041","password":"888888","rPwd":false,"phoneArea":"86"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>host1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>host2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>API</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>https://t.dental3dcloud.com</t>
+    <t>/api/u/dental/o/list</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>/api/login</t>
+    <t>get</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=20&amp;page=1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -275,9 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,11 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -611,19 +597,18 @@
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="5" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="58.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,321 +618,281 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>22</v>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
+      <c r="B2" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
+      <c r="D2" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="43.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" ht="43.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="55.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" ht="55.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="57.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="57.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -1035,14 +980,10 @@
       <c r="C33" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0227019-1F77-4223-92BE-298FC2B87F5E}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{6D3376A4-8A74-4016-8EA9-BC8F9133184E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ApiData/DemoAPITestCase.xlsx
+++ b/ApiData/DemoAPITestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\auto\knowledge\pythonProject\ApiDiff\ApiData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D10EC-71E0-44FC-AD38-36A02E60C680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61126422-1472-4946-91F6-5E12825A5AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>module</t>
   </si>
@@ -63,18 +63,7 @@
     <t xml:space="preserve"> testers</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>success</t>
-  </si>
-  <si>
-    <t>event_login_001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cookie":"uuid=20c75426-2034-49ff-a688-fef30cd1914b; cc=CN; lang=zh-cn; oemURL=index; country=CN"}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
@@ -97,7 +86,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>pageSize=20&amp;page=1</t>
+    <t>案例列表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>o/list</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'pageSize':20,'page':1}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -589,7 +583,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -618,8 +612,8 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>17</v>
+      <c r="D1" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -649,335 +643,333 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="60.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="36.299999999999997" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="43.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="55.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="57.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:13" ht="26.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>

--- a/ApiData/DemoAPITestCase.xlsx
+++ b/ApiData/DemoAPITestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\auto\knowledge\pythonProject\ApiDiff\ApiData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61126422-1472-4946-91F6-5E12825A5AE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09ACB58-C6F0-41DF-85B4-07FCD5C393DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>module</t>
   </si>
@@ -90,12 +90,50 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>o/list</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{'pageSize':20,'page':1}</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>云平台</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dental_cloud_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dental_cloud_002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系网</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/u/dental/c/list</t>
+  </si>
+  <si>
+    <t>添加消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/u/dental/comment/add</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"id":"a8f49065-2d5f-5af7-9d71-2e2951062c7d","notes":"test","dfsIDs":[]}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dental_cloud_003</t>
   </si>
 </sst>
 </file>
@@ -218,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +311,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -583,7 +633,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
@@ -645,10 +695,10 @@
     </row>
     <row r="2" spans="1:13" ht="36.299999999999997" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>18</v>
@@ -660,7 +710,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -676,33 +726,69 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
+    <row r="3" spans="1:13" ht="36.299999999999997" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="29.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="7"/>
+      <c r="H4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="6"/>
     </row>

--- a/ApiData/DemoAPITestCase.xlsx
+++ b/ApiData/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8675"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>module</t>
   </si>
@@ -81,7 +81,7 @@
     <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc378da"}</t>
   </si>
   <si>
-    <t>{"modelCode":"WG-3571","serialNum":"einscanpsc-tbah185e09","softModelCode":"V2.3.4.5.6","ver":"xxx","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelCode":"WG-3571","serialNum":"einscanpsc-tbah185e09","softModelCode":"V2.3.4.5.6","ver":"xxx","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>json</t>
@@ -99,10 +99,7 @@
     <t>/dtta?type=form</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc379da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__3</t>
@@ -114,10 +111,7 @@
     <t>/dtta?type=aliReport</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc380da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\\\"enableGuide\\\":\\\"\\\"}","source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\"enableGuide\":\"\"}","source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__4</t>
@@ -129,10 +123,7 @@
     <t>/dtta?type=aliUpgrade</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc381da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"deviceId":"","algorighmVer":"","sdkVer":"","communityVer":"","firmwareVer":"","ssid":"","ssidPwd":"","frontVer":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"deviceId":"","algorighmVer":"","sdkVer":"","communityVer":"","firmwareVer":"","ssid":"","ssidPwd":"","frontVer":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__5</t>
@@ -144,10 +135,7 @@
     <t>/dtta?type=data</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc382da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"files":"fdj.dfsId","source":"default","others":"xxx"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"files":"fdj.dfsId","source":"default","others":"xxx"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__6</t>
@@ -159,10 +147,7 @@
     <t>/dtta?type=dot</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc383da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"dotName":"xxx","modelCode":"einscan","sn":"7D5L-LE38-B2BE-52B9-A6CA"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"dotName":"xxx","modelCode":"einscan","sn":"7D5L-LE38-B2BE-52B9-A6CA"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__7</t>
@@ -174,10 +159,7 @@
     <t>/dtta?type=install</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc384da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"email":"123@qq.com","phone":"13065700119","title":"test","industry":"tedst"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"email":"123@qq.com","phone":"13065700119","title":"test","industry":"tedst"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__8</t>
@@ -189,10 +171,7 @@
     <t>/dtta?type=log</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc385da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\\\"enableGuide\\\":\\\"\\\"}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\\\"enableGuide\\\":\\\"\\\"}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__9</t>
@@ -204,10 +183,7 @@
     <t>/dtta?type=scan</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc386da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"mode":[{"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-28T12:04:04Z","tuntableSteps":44,"alignMode":["Markers","Mixed"],"hdr":"yes","modular":[{"name":"xxx","sn":"xxx","validTo":"xxx","status":false,"mple":"xxx"}],"classsify":"HandheldHD"}],"texture":"yes","totalPoint":9000,"frameRate":15,"pointDis":900.88,"handHeldPointGenWay":"quality","meshType":"none","fileName":"dasfds","box":{"length":44.34,"width":44.34,"height":44.34}},"osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"mode":[{"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-28T12:04:04Z","tuntableSteps":44,"alignMode":["Markers","Mixed"],"hdr":"yes","modular":[{"name":"xxx","sn":"xxx","validTo":"xxx","status":False,"mple":"xxx"}],"classsify":"HandheldHD"}],"texture":"yes","totalPoint":9000,"frameRate":15,"pointDis":900.88,"handHeldPointGenWay":"quality","meshType":"none","fileName":"dasfds","box":{"length":44.34,"width":44.34,"height":44.34}},"osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__10</t>
@@ -219,10 +195,7 @@
     <t>/dtta?type=score</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc387da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"score":5,"comment":"fadsfasd","industry":"dddd"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"score":5,"comment":"fadsfasd","industry":"dddd"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__11</t>
@@ -234,10 +207,7 @@
     <t>/dtta?type=setting</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc388da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"enableTracing":"","other":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"enableTracing":"","other":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__12</t>
@@ -249,10 +219,7 @@
     <t>/dtta?type=share</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc389da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"target":"3dzao","name":"fadsfasd","account":"dddd"},"osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"target":"3dzao","name":"fadsfasd","account":"dddd"},"osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__13</t>
@@ -264,10 +231,7 @@
     <t>/dtta?type=calibration</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc390da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":[{"classsify":"hd","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}],"startOn":"2017-01-28T12:04:04Z","endOn":"2017-01-29T12:04:04Z","result":"success"}],"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":[{"classsify":"hd","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}],"startOn":"2017-01-28T12:04:04Z","endOn":"2017-01-29T12:04:04Z","result":"success"}],"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__14</t>
@@ -279,10 +243,7 @@
     <t>/dtta?type=dentalScan</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc391da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"preparation":"Crown","occlusionType":"None","scanObjectType":"Die","callSourceType":"DentalScan","dentalNotation":"FDI","caseCreatedTime":"2018-05-28T13:04:04Z","gingivaScan":"true","situScan":"false","ortho":"true","manualAlign":"false","modelEdit":"true","fillHole":"false","rangeScan":"true","mendScan":"false","multiMendScan":"true","gPURebuild":"false","3Party":"true","textureScan":"false","refPoints":"true","articulator":"false","remoteScanMode":"true"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"preparation":"Crown","occlusionType":"None","scanObjectType":"Die","callSourceType":"DentalScan","dentalNotation":"FDI","caseCreatedTime":"2018-05-28T13:04:04Z","gingivaScan":"True","situScan":"False","ortho":"True","manualAlign":"False","modelEdit":"True","fillHole":"False","rangeScan":"True","mendScan":"False","multiMendScan":"True","gPURebuild":"False","3Party":"True","textureScan":"False","refPoints":"True","articulator":"False","remoteScanMode":"True"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__15</t>
@@ -294,10 +255,7 @@
     <t>/dtta?type=feedback</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc392da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"email":"123@qq.com","attachs":[],"content":"test","industry":"test"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"email":"123@qq.com","attachs":[],"content":"test","industry":"test"},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__16</t>
@@ -309,10 +267,7 @@
     <t>/dtta?type=upgrade</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc393da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\\\"version\\\":\\\"V2.3.4.6\\\"}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":"{\\\"version\\\":\\\"V2.3.4.6\\\"}","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
   <si>
     <t>dental/device__17</t>
@@ -324,10 +279,7 @@
     <t>/dtta?type=usage</t>
   </si>
   <si>
-    <t>{"X-Auth-AppId":"2d274d917e32a1188f39ba102bc394da"}</t>
-  </si>
-  <si>
-    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":false,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"enableGuide":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":false,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
+    <t>{"modelName":"WG-3571","serialNum":"einscanpsc-tbah185e09","installCode":"LSJF-FDSD-2DSF-SFSF","usageCode":"LSJF-FDSD-2DSF-SFDF","softwareName":"einscan","softwareVer":"einscan","tracingType":"form","isOnline":False,"startOn":"2020-01-28T12:04:04Z","endOn":"2020-01-29T12:04:04Z","content":{"enableGuide":""},"source":"default","osSoftExt":{"osName":"windows","hostName":"LAPTOP-0JQ6URHA","osType":"windows","osVersion":"10.0.18362","lang":"zh-cn","resolution":"2478*1468","installPath":"afsdasd","browser":{"name":"chrome","ver":"54.98"}},"osHdExt":{"cpu":[{"cpuCores":8,"cpuModel":"xeon","cpuVendor":"inter"}],"memSize":8096,"gpu":[{"gpuModel":"intel hd4000","gpuMemSize":3900987777}],"hddSize":7866555,"hddRemainSize":98792323232},"modularExt":{"ple":"588ea5a2b4fa8c29759e579d-V200.ple","modular":[{"name":"test-hsq","sn":"7D5L-LE38-B2BE-52B9-A6CA","validTo":"2021-05-30","status":False,"mple":"588ea5a2b4fa8c29759e579d-V200.ple"}]}}</t>
   </si>
 </sst>
 </file>
@@ -335,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -357,54 +309,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,8 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,7 +369,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,9 +406,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,7 +416,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,14 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -515,187 +467,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,11 +676,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +711,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,21 +750,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,36 +773,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -829,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -841,133 +793,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1350,10 +1302,10 @@
   <sheetPr/>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1363,7 +1315,7 @@
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="6" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.3333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="58" style="2" customWidth="1"/>
     <col min="8" max="8" width="58.3333333333333" style="2" customWidth="1"/>
     <col min="9" max="9" width="5.66666666666667" style="3" customWidth="1"/>
     <col min="10" max="10" width="13" style="3" customWidth="1"/>
@@ -1470,10 +1422,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>21</v>
@@ -1492,13 +1444,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -1507,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>21</v>
@@ -1529,13 +1481,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -1544,10 +1496,10 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>21</v>
@@ -1566,13 +1518,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -1581,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>21</v>
@@ -1603,13 +1555,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -1618,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>21</v>
@@ -1640,13 +1592,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -1655,10 +1607,10 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>21</v>
@@ -1677,13 +1629,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -1692,10 +1644,10 @@
         <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>21</v>
@@ -1714,13 +1666,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
@@ -1729,10 +1681,10 @@
         <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>21</v>
@@ -1751,13 +1703,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>17</v>
@@ -1766,10 +1718,10 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>21</v>
@@ -1788,13 +1740,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>17</v>
@@ -1803,10 +1755,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>21</v>
@@ -1825,13 +1777,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>17</v>
@@ -1840,10 +1792,10 @@
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>21</v>
@@ -1862,13 +1814,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>17</v>
@@ -1877,10 +1829,10 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -1899,13 +1851,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>17</v>
@@ -1914,10 +1866,10 @@
         <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>21</v>
@@ -1936,13 +1888,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>17</v>
@@ -1951,10 +1903,10 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>21</v>
@@ -1973,13 +1925,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>17</v>
@@ -1988,10 +1940,10 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>21</v>
@@ -2010,13 +1962,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>17</v>
@@ -2025,10 +1977,10 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>21</v>
